--- a/504文档/招生/第二轮通知确认名单.xlsx
+++ b/504文档/招生/第二轮通知确认名单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>简历</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>推免资格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -72,10 +68,6 @@
     <t>luchunjiangsu@163.com</t>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>刘录</t>
   </si>
   <si>
@@ -152,11 +144,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>放弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕博+工程硕士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕博</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -552,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -566,9 +578,10 @@
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.21875" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,195 +603,181 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="3">
         <v>13699287273</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="3">
         <v>13161887854</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="3">
         <v>18844191589</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="3">
         <v>15680021326</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F6" s="3">
         <v>18202724989</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="3">
         <v>18811409105</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F8" s="3">
         <v>15705420731</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/504文档/招生/第二轮通知确认名单.xlsx
+++ b/504文档/招生/第二轮通知确认名单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -160,15 +160,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>放弃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>硕博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +216,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +235,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,11 +269,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDAEEF3"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDAEEF3"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDAEEF3"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDAEEF3"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDAEEF3"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDAEEF3"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -567,7 +628,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -633,153 +694,156 @@
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3">
-        <v>13161887854</v>
+        <v>18844191589</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F4" s="3">
-        <v>18844191589</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>18202724989</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3">
-        <v>15680021326</v>
+        <v>18811409105</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3">
-        <v>18202724989</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6">
+        <v>15680021326</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3">
-        <v>18811409105</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6">
+        <v>13161887854</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>15705420731</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>40</v>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A7:H7">
+    <sortCondition ref="F7"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
